--- a/SQL_ex.xlsx
+++ b/SQL_ex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\SQL_ex\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\SQL_ex\SQL_Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DB4780-E7CA-447C-980A-B9B7C1411DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA8A04C-94DB-450C-A7D9-572012C7ED20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Краткая информация о базе данных "Компьютерная фирма":
 Схема БД состоит из четырех таблиц:
@@ -83,10 +83,41 @@
     <t>Для каждого производителя, выпускающего ПК-блокноты c объёмом жесткого диска не менее 10 Гбайт, найти скорости таких ПК-блокнотов. Вывод: производитель, скорость.</t>
   </si>
   <si>
-    <t>SELECT DISTINCT product.maker,laptop.speed FROM product JOIN laptop ON product.model= laptop.model WHERE hd &gt;= '10'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM (SELECT model, price 
+    <t>Найдите номера моделей и цены всех имеющихся в продаже продуктов (любого типа) производителя B (латинская буква).</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT  model,ram, screen 
+FROM laptop 
+WHERE price &gt; 1000</t>
+  </si>
+  <si>
+    <t>Найдите номер модели, объем памяти и размеры экранов ПК-блокнотов, цена которых превышает 1000 дол.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM printer
+WHERE color='y'</t>
+  </si>
+  <si>
+    <t>Найдите все записи таблицы Printer для цветных принтеров.</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT model, speed, hd FROM PC
+WHERE price &lt; 600 AND (cd = '12x' OR cd ='24x')</t>
+  </si>
+  <si>
+    <t>Найдите номер модели, скорость и размер жесткого диска ПК, имеющих 12x или 24x CD и цену менее 600 дол.</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT  product.maker,laptop.speed 
+FROM product   JOIN laptop ON product.model= laptop.model
+WHERE hd &gt;= 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ </t>
+  </si>
+  <si>
+    <t>SELECT * FROM (SELECT model, price 
  FROM PC
  UNION
  SELECT model, price 
@@ -97,11 +128,7 @@
  ) AS a
 WHERE a.model IN (SELECT model 
  FROM Product 
- WHERE maker = 'B')
- </t>
-  </si>
-  <si>
-    <t>Найдите номера моделей и цены всех имеющихся в продаже продуктов (любого типа) производителя B (латинская буква).</t>
+ WHERE maker = 'B')</t>
   </si>
 </sst>
 </file>
@@ -182,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -202,6 +229,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,10 +534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -526,45 +562,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="178.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
